--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435463.784880592</v>
+        <v>432762.5682291355</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>208.2085323732921</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.6219603475731</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.79707057279531</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.76881612058506</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.7650187107625</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>102.075709695719</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154324</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>95.67513661340807</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>97.84123035967389</v>
       </c>
       <c r="G6" t="n">
-        <v>86.23294543099256</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951723</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713678</v>
+        <v>4.36018225871382</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643408</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>17.96871537368962</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.7704271215201</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713356</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>156.6864193108314</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>81.41991363795918</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>47.82814756577434</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.0310845740816</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108828</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.0426692132529</v>
+        <v>136.7254352278186</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986284</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833762</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91555826188609</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>204.0857894458077</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>164.5662136960142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428202</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.6889225686074</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>284.0339611927405</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.477756798422</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>157.477756798422</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.5656780782545</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>911.803034806456</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>911.803034806456</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>911.803034806456</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>911.803034806456</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>657.5656780782545</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>657.5656780782545</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.5656780782545</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388467</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408294</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6957333972993</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.6336851371677</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="C5" t="n">
-        <v>907.6336851371677</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="D5" t="n">
-        <v>907.6336851371677</v>
+        <v>466.3640882304637</v>
       </c>
       <c r="E5" t="n">
-        <v>521.8454325389234</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
-        <v>514.89993178972</v>
+        <v>356.311810010837</v>
       </c>
       <c r="G5" t="n">
-        <v>127.3365703599902</v>
+        <v>343.7673746797563</v>
       </c>
       <c r="H5" t="n">
-        <v>127.3365703599902</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275164</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245569</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825639</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748883</v>
+        <v>729.4041931748868</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202383</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798417</v>
+        <v>1264.916654798414</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189415</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.75091126173</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.75091126173</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398248</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398248</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="W5" t="n">
-        <v>1281.099443398248</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="X5" t="n">
-        <v>907.6336851371677</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.6336851371677</v>
+        <v>824.6297868372142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252.7559255422468</v>
+        <v>499.8548915312021</v>
       </c>
       <c r="C6" t="n">
-        <v>252.7559255422468</v>
+        <v>325.4018622500751</v>
       </c>
       <c r="D6" t="n">
-        <v>252.7559255422468</v>
+        <v>325.4018622500751</v>
       </c>
       <c r="E6" t="n">
-        <v>252.7559255422468</v>
+        <v>166.1644072446196</v>
       </c>
       <c r="F6" t="n">
-        <v>252.7559255422468</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="H6" t="n">
         <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034347</v>
+        <v>49.44206107563428</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516543</v>
+        <v>159.6385680169447</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830068</v>
+        <v>354.1339118482968</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537533</v>
+        <v>600.4576725190427</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259764</v>
+        <v>980.3085230563197</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891496</v>
+        <v>1202.571970221838</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090184</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757978</v>
+        <v>1530.346686757974</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152073</v>
+        <v>1385.878273152069</v>
       </c>
       <c r="T6" t="n">
-        <v>1385.878273152073</v>
+        <v>1189.973630703753</v>
       </c>
       <c r="U6" t="n">
-        <v>1157.757189472678</v>
+        <v>961.8525470243576</v>
       </c>
       <c r="V6" t="n">
-        <v>922.6050812409351</v>
+        <v>961.8525470243576</v>
       </c>
       <c r="W6" t="n">
-        <v>668.3677245127335</v>
+        <v>707.615190296156</v>
       </c>
       <c r="X6" t="n">
-        <v>460.5162243072007</v>
+        <v>707.615190296156</v>
       </c>
       <c r="Y6" t="n">
-        <v>252.7559255422468</v>
+        <v>499.8548915312021</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="C7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="D7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="E7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="F7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709663</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709663</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223271</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830396</v>
+        <v>375.1387655830391</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388163</v>
+        <v>615.0688576388154</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974838</v>
+        <v>854.7285647974827</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371327</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="T7" t="n">
-        <v>685.6925863136773</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="U7" t="n">
-        <v>667.5423687644959</v>
+        <v>621.2179736135024</v>
       </c>
       <c r="V7" t="n">
-        <v>412.8578805586091</v>
+        <v>366.5334854076156</v>
       </c>
       <c r="W7" t="n">
-        <v>412.8578805586091</v>
+        <v>258.6845691232518</v>
       </c>
       <c r="X7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.8683296605917</v>
+        <v>30.69501822523451</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1020.544708344026</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>634.756455745782</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>223.7705509561744</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>212.1062047208674</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2404.070217985174</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2073.007330641603</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1720.238675371489</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1720.238675371489</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.099343395678</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.2673087445005</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>600.3311258165936</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>450.2144864042579</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>450.2144864042579</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>450.2144864042579</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>282.2280217125365</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>133.4891235760427</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>990.0598878880306</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>990.0598878880306</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>769.2673087445005</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625332</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
@@ -5060,31 +5060,31 @@
         <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.023614408075</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3794.023614408075</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="U11" t="n">
-        <v>3794.023614408075</v>
+        <v>3419.41074749893</v>
       </c>
       <c r="V11" t="n">
-        <v>3462.960727064504</v>
+        <v>3088.347860155359</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.192071794389</v>
+        <v>2735.579204885245</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.192071794389</v>
+        <v>2362.113446624165</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>84.53144813504377</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504377</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929952</v>
+        <v>676.7125526339513</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.1205052532038</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>781.1205052532038</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>631.003865840868</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>483.0907722584749</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177248</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971361</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.3699779344</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036383</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.5878478928529</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2079.600600930059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876643</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597574</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9333885650285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614341</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317904</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2030.834046804724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1741.758820148922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1197.657161906074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>969.6676110080571</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121647</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121647</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121647</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121647</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327641</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048573</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925215</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925215</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>297.8113689946112</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>297.8113689946112</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7579,10 +7579,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636977</v>
+        <v>34.43939438637005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.560589530009</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.7363514798531</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>117.9015257860042</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515143</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.85402142207053</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349653</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.78931096868445</v>
+        <v>43.10654495411873</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393013</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.3791545843378</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856256</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>21.62386594322947</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>52.83923663127405</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194187</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>19.60579027761651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.150513196503653</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1039480.962009967</v>
+        <v>1039480.962009968</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303378</v>
+        <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="K2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
       <c r="M2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657084</v>
+        <v>132804.2190657073</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929364</v>
+        <v>265413.0723929374</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704293</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417462</v>
+        <v>30877.4292641743</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049533</v>
+        <v>65018.34502049557</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202358</v>
@@ -26418,7 +26418,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.798266485</v>
+        <v>215494.7982664853</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26430,19 +26430,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.03225179356</v>
-      </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667506</v>
+        <v>72593.65038667496</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604368.3087289446</v>
+        <v>-604368.3087289444</v>
       </c>
       <c r="C6" t="n">
-        <v>-30897.82703333392</v>
+        <v>-30897.82703333338</v>
       </c>
       <c r="D6" t="n">
-        <v>-108694.6879847071</v>
+        <v>-108694.6879847079</v>
       </c>
       <c r="E6" t="n">
-        <v>-61796.36508377177</v>
+        <v>-62017.4963977471</v>
       </c>
       <c r="F6" t="n">
-        <v>81796.80400662294</v>
+        <v>81762.06608118798</v>
       </c>
       <c r="G6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516165</v>
       </c>
       <c r="H6" t="n">
-        <v>271105.0727770521</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="I6" t="n">
-        <v>271105.0727770521</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="J6" t="n">
-        <v>202105.9183579383</v>
+        <v>202071.1804325025</v>
       </c>
       <c r="K6" t="n">
-        <v>240227.6435128776</v>
+        <v>240192.9055874423</v>
       </c>
       <c r="L6" t="n">
-        <v>206086.7277565568</v>
+        <v>206051.9898311211</v>
       </c>
       <c r="M6" t="n">
-        <v>189207.6690643214</v>
+        <v>189172.9311388858</v>
       </c>
       <c r="N6" t="n">
-        <v>221265.4986450287</v>
+        <v>221230.760719593</v>
       </c>
       <c r="O6" t="n">
-        <v>271105.0727770522</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="P6" t="n">
-        <v>271105.0727770523</v>
+        <v>271070.3348516165</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169576</v>
+        <v>717.3319511695749</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154324</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000976</v>
+        <v>103.2769374000967</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479634</v>
+        <v>216.7329409479642</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139262</v>
+        <v>119.9738478139252</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846064</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139265</v>
+        <v>119.9738478139252</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846064</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506391</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139262</v>
+        <v>119.9738478139252</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846064</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,13 +27436,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>161.522568305177</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>5.527975064625707</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.0574169307593</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.0631640613522</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>161.493611791915</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>279.8546603765428</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233748</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.625114575228665</v>
+        <v>99.30025118863689</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>47.22798203370999</v>
       </c>
       <c r="G6" t="n">
-        <v>49.56763130894767</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>268.2797567417026</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.7525712150709</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910698</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>94.3588308176306</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>23.37668156594138</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959631</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.970068635477219e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-4.486840528746446e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365123</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579062</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756937</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023596</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952477</v>
+        <v>455.0768316952471</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791148</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284035</v>
+        <v>514.5541040284028</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397479</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562773</v>
+        <v>414.6863567562767</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868886</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020791</v>
+        <v>65.71337422020781</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892102</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270409</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189785</v>
+        <v>53.12316808189777</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.15104194538</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438666</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874188</v>
+        <v>390.9459133874183</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189121</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348678</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190661</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392946</v>
+        <v>95.79765189392931</v>
       </c>
       <c r="S6" t="n">
-        <v>28.659441633992</v>
+        <v>28.65944163399196</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989057</v>
+        <v>6.219132670989048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572062</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402937</v>
+        <v>91.45394400402924</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401177</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773278</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669602</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565117</v>
+        <v>58.16268574565109</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101765</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060665</v>
+        <v>5.526983886060657</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864689</v>
+        <v>0.07055724109864679</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>133.9020531506294</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>346.570093142789</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>510.8679233250724</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900742</v>
+        <v>63.70847814900708</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557379</v>
+        <v>146.7335225573785</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252605</v>
+        <v>219.3104167252598</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518421</v>
+        <v>276.0144259518413</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318125</v>
+        <v>285.1410404318119</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757922</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010078</v>
+        <v>183.4533610010072</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243913</v>
+        <v>89.10649401243867</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960492</v>
+        <v>18.93640691959573</v>
       </c>
       <c r="K6" t="n">
-        <v>111.309602971021</v>
+        <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639924</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654005</v>
+        <v>248.8118794654</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355789</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904234</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047358</v>
+        <v>278.5610663907396</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237836</v>
+        <v>56.97321748793425</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148612</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391684</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491159</v>
+        <v>22.15508137491143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750467</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.064426483962674</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>208.0157133629148</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066205</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5262112417391</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
